--- a/medicine/Enfance/Louis_Joos/Louis_Joos.xlsx
+++ b/medicine/Enfance/Louis_Joos/Louis_Joos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Joos, né le 1er mai 1940 à Auderghem dans la région de Bruxelles-Capitale est un auteur de bande dessinée et illustrateur belge, connu pour être le parrain d'une nouvelle génération d'auteurs de la bande dessinée alternative.
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Joos naît le 1er mai 1940 à Auderghem, une commune bruxelloise[1]. Il poursuit une formation artistique à l'Académie royale des beaux-arts de Bruxelles.
-Il publie son premier recueil intitulé Le Colaxa aux éditions Futuropolis en 1982[2], suivi de Saxo Cool[2] (1984), Foutue croisière (1985)[2], Le Mal de l'espace[2] (1986), La Musique de Nuit[2] (1987) et Marvin Gaye – Transit Ostende (1988)[3].
-Il participe pendant les années 1980 à la revue belge, Ice Crims[3], au fanzine PLG[3] et aux numéros spéciaux de Circus[4]. De 1989 à 1993, il illustre épisodiquement la rubrique Musiques à suivre dans la revue (À suivre)[5]. Il s'associe au scénariste Yann Le Pennetier pour l'album O.A.S. Aïsha qui paraît dans la collection « Grafica » aux éditions Glénat en 1990[3], puis il illustre le roman de Marc Villard La Dame est une traînée dans la collection « Série Noire » des éditions Futuropolis – Gallimard[3].
-En 1993, l'ouvrage qu'il a illustré Escales : carnet de croquis obtient la « Mention » Premio Grafico Fiera di Bologna per l'Infanzia de la Foire du livre de jeunesse de Bologne[6] (Italie) sur un texte de Rascal.
-En 1995, il est récompensé par la Pomme d'Or de Bratislava[7] de la Biennale d'illustration de Bratislava.
-Au cours des années 1990, il réalise des albums pour la jeunesse : Escale, Le Voyage d'Oregon, Nemo et le Volcan, Un loup dans la nuit bleue et Beau comme au cinéma, et des albums de jazz : Thelonious Monk, Blues, Mood Indigo et Mingus[3]. Il associe les collaborations aux magazines Pomme d'Api et Wakou à l'enseignement à l'académie de Boisfort (Bruxelles) et à la réalisation d'albums : Suite Bleue en 2001 chez 9e Monde et Jazz Concert chez Pyramides. Son illustration des Fleurs du Mal de Charles Baudelaire est parue en 2002 à La Renaissance du livre[3]. L'année suivante, il illustre les poèmes de Paul Verlaine chez le même éditeur[3]. Louis Joos prend une place naturelle dans la collection « BDJAZZ ». En 2015, il fait une furtive apparition dans Spirou où il signe un strip dans le no 4044 et un gag dans le numéro suivant[8].
-Il a longtemps enseigné l'illustration et la bande dessinée à l'Académie de Watermael-Boitsfort à Bruxelles (1986-2005)[3],[9].
-L'artiste expose ses œuvres tant en Belgique qu'à l'étranger[10].
-Selon Patrick Gaumer[3] : « Influencé à l'origine par des créateurs comme Noel Sickles, Milton Caniff et José Muñoz, Louis Joos excelle tout particulièrement dans les ambiances à dominante « jazzy ». Digne représentant d'un expressionisme en noir et blanc, il n'hésite pourtant pas à varier les techniques et à aborder la mise en couleur dans ses livres pour enfants. »
-Selon Thierry Bellefroid[11] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Joos naît le 1er mai 1940 à Auderghem, une commune bruxelloise. Il poursuit une formation artistique à l'Académie royale des beaux-arts de Bruxelles.
+Il publie son premier recueil intitulé Le Colaxa aux éditions Futuropolis en 1982, suivi de Saxo Cool (1984), Foutue croisière (1985), Le Mal de l'espace (1986), La Musique de Nuit (1987) et Marvin Gaye – Transit Ostende (1988).
+Il participe pendant les années 1980 à la revue belge, Ice Crims, au fanzine PLG et aux numéros spéciaux de Circus. De 1989 à 1993, il illustre épisodiquement la rubrique Musiques à suivre dans la revue (À suivre). Il s'associe au scénariste Yann Le Pennetier pour l'album O.A.S. Aïsha qui paraît dans la collection « Grafica » aux éditions Glénat en 1990, puis il illustre le roman de Marc Villard La Dame est une traînée dans la collection « Série Noire » des éditions Futuropolis – Gallimard.
+En 1993, l'ouvrage qu'il a illustré Escales : carnet de croquis obtient la « Mention » Premio Grafico Fiera di Bologna per l'Infanzia de la Foire du livre de jeunesse de Bologne (Italie) sur un texte de Rascal.
+En 1995, il est récompensé par la Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava.
+Au cours des années 1990, il réalise des albums pour la jeunesse : Escale, Le Voyage d'Oregon, Nemo et le Volcan, Un loup dans la nuit bleue et Beau comme au cinéma, et des albums de jazz : Thelonious Monk, Blues, Mood Indigo et Mingus. Il associe les collaborations aux magazines Pomme d'Api et Wakou à l'enseignement à l'académie de Boisfort (Bruxelles) et à la réalisation d'albums : Suite Bleue en 2001 chez 9e Monde et Jazz Concert chez Pyramides. Son illustration des Fleurs du Mal de Charles Baudelaire est parue en 2002 à La Renaissance du livre. L'année suivante, il illustre les poèmes de Paul Verlaine chez le même éditeur. Louis Joos prend une place naturelle dans la collection « BDJAZZ ». En 2015, il fait une furtive apparition dans Spirou où il signe un strip dans le no 4044 et un gag dans le numéro suivant.
+Il a longtemps enseigné l'illustration et la bande dessinée à l'Académie de Watermael-Boitsfort à Bruxelles (1986-2005),.
+L'artiste expose ses œuvres tant en Belgique qu'à l'étranger.
+Selon Patrick Gaumer : « Influencé à l'origine par des créateurs comme Noel Sickles, Milton Caniff et José Muñoz, Louis Joos excelle tout particulièrement dans les ambiances à dominante « jazzy ». Digne représentant d'un expressionisme en noir et blanc, il n'hésite pourtant pas à varier les techniques et à aborder la mise en couleur dans ses livres pour enfants. »
+Selon Thierry Bellefroid : 
 « Dans un paysage marqué par le classicisme des grands anciens l'auteur [...] a su poser un jalon différent. Dès le début des années 1980, il est le premier Belge à publier chez Futuropolis, ancêtre (pas toujours assumé) de toutes les futures maisons d’éditions indépendantes. Joos, amoureux du jazz, musicien lui-même, est un adepte du noir et blanc. Son trait évocateur, faussement désinvolte, reste une référence. Il est, sans le vouloir, l’un des parrains de cette nouvelle génération. Par ailleurs, ce grand défenseur du noir et blanc est aussi un dessinateur jeunesse – le plus souvent aux côtés de Carl Norac – qui aime éclabousser de couleurs les livres destinés à ses plus jeunes lecteurs. »
 </t>
         </is>
@@ -554,10 +568,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-(liste non exhaustive)
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(liste non exhaustive)
 Le Colaxa, Futuropolis, coll. « Maraccas », Paris, décembre 1982Scénario et dessin : Louis Joos - Couleurs : noir et blanc
-Saxo Cool[12], Futuropolis, coll. « Hic et Nunc », Paris, septembre 1984Scénario et dessin : Louis Joos - Couleurs : noir et blanc
+Saxo Cool, Futuropolis, coll. « Hic et Nunc », Paris, septembre 1984Scénario et dessin : Louis Joos - Couleurs : noir et blanc
 Ostende Miami, Ice Crim's, coll. « Espresso », janvier 1984Scénario : Antoine Andrieu - Dessin : Louis Joos - Couleurs : noir et blanc -  (ISBN 2871380007)
 Horreur pastorale, (texte Conan Doyle), Futuropolis, 1984
 Foutue croisière, Futuropolis, coll. « X », Paris, juin 1985Scénario et dessin : Louis Joos - Couleurs : noir et blanc,Format à l'italienne.
@@ -568,8 +587,8 @@
 Thelonious Monk, Point Image, coll. « Light blue », Bruxelles, mai 1995Scénario et dessin : Louis Joos - Couleurs : noir et blanc -  (ISBN 2930110015),Petit format.
 Blues, Point Image, coll. « Light blue », Bruxelles, mai 1996Scénario et dessin : Louis Joos - Couleurs : noir et blanc -  (ISBN 293011004X),Format à l'italienne.
 Mood indigo, Point Image, coll. « Light blue », Bruxelles, février 1997Scénario et dessin : Louis Joos - Couleurs : noir et blanc -  (ISBN 2930110090)
-Mingus, édit. Pyramides/Aplanos, 1999[13]
-Suite bleue, (texte Frédéric Debomy) édit. Le 9e Monde, 2001[14],[15].
+Mingus, édit. Pyramides/Aplanos, 1999
+Suite bleue, (texte Frédéric Debomy) édit. Le 9e Monde, 2001,.
 Jazz Concert, édit. Pyramides/Aplanos, 2001
 Le Dernier Voyage de St Exupéry, (texte Carl Norac), La Renaissance du livre, 2001
 Ladies in Blue, édit. PMJ/Nocturne, 2002
@@ -601,16 +620,7 @@
 Cœurs d'Ogres, (texte Béatrice Deru) 2007  (ISBN 9782211087728)
 Marilyn Rouge, (texte Rascal) 2009  (ISBN 9782211094023)
 Mère magie, texte de Carl Norac, illustrations de Louis Joos, Pastel, 2011  (ISBN 9782211205733)
-Buffalo Kid, (texte Rascal), Pastel 2023  (ISBN 978-2211325042)
-Para-BD
-Louis Joos réalise des portfolios, des ex-libris et des cartes ou cartons[16]. 
-Expositions
-Mingus[10], Galerie Ziggourat, Bruxelles, du 14 mai au 10 juin 1999.
-Louis Joos At the Village[16], Galerie Oblique, Paris, du 30 mai au 16 juin 2012.
-Jazz Variations[17], Galerie Champaka, Bruxelles, du 13 mars au 6 avril 2014 ;
-Jazz ! Espace rencontres[18], Galerie Huberty et Breyne, Bruxelles, du 28 juin au 27 juillet 2019 ;
-45 Artistes font leur Cinéma[18], Galerie Huberty et Breyne, Bruxelles, du 30 avril au 29 mai 2021 ;
-The Traveler[18], Galerie Huberty et Breyne, Bruxelles, du 17 juin au 27 août 2022.</t>
+Buffalo Kid, (texte Rascal), Pastel 2023  (ISBN 978-2211325042)</t>
         </is>
       </c>
     </row>
@@ -635,14 +645,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Para-BD</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Joos réalise des portfolios, des ex-libris et des cartes ou cartons. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Joos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Joos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mingus, Galerie Ziggourat, Bruxelles, du 14 mai au 10 juin 1999.
+Louis Joos At the Village, Galerie Oblique, Paris, du 30 mai au 16 juin 2012.
+Jazz Variations, Galerie Champaka, Bruxelles, du 13 mars au 6 avril 2014 ;
+Jazz ! Espace rencontres, Galerie Huberty et Breyne, Bruxelles, du 28 juin au 27 juillet 2019 ;
+45 Artistes font leur Cinéma, Galerie Huberty et Breyne, Bruxelles, du 30 avril au 29 mai 2021 ;
+The Traveler, Galerie Huberty et Breyne, Bruxelles, du 17 juin au 27 août 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Joos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Joos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1993 :  « Mention » Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne[6]  pour  Escales : carnet de croquis, sur un texte de Rascal ;
-1995 :  Pomme d'Or de Bratislava[7], lors de la Biennale d'illustration de Bratislava, pour Eva ou le pays des fleurs (texte de Rascal) et pour Nemo et le volcan (texte de Carl Norac) ;
-2023 : Lauréat du Prix de contribution au rayonnement de la littérature de jeunesse[19] de la Fédération Wallonie-Bruxelles.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1993 :  « Mention » Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne  pour  Escales : carnet de croquis, sur un texte de Rascal ;
+1995 :  Pomme d'Or de Bratislava, lors de la Biennale d'illustration de Bratislava, pour Eva ou le pays des fleurs (texte de Rascal) et pour Nemo et le volcan (texte de Carl Norac) ;
+2023 : Lauréat du Prix de contribution au rayonnement de la littérature de jeunesse de la Fédération Wallonie-Bruxelles.</t>
         </is>
       </c>
     </row>
